--- a/TIS_FRONTEND/public/plantillas/Formato_Inscripcion.xlsx
+++ b/TIS_FRONTEND/public/plantillas/Formato_Inscripcion.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ANDREA BORDA\TIS\TIS_BACKEND\public\plantillas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ANDREA BORDA\TIS\TIS_FRONTEND\public\plantillas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{68EF41D1-2461-4336-85E2-0C060D265D31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B769E1E4-F228-442A-96AD-78DE54199278}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{A0683AA4-5383-4092-8E7E-B6D773580DA1}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
   <si>
     <t>Nombre de estudiante</t>
   </si>
@@ -88,6 +88,45 @@
   </si>
   <si>
     <t>Area</t>
+  </si>
+  <si>
+    <t>Nivel</t>
+  </si>
+  <si>
+    <t>Oh Sansi</t>
+  </si>
+  <si>
+    <t>Pequeolimpiadas</t>
+  </si>
+  <si>
+    <t>Plurinacionales</t>
+  </si>
+  <si>
+    <t>Matematica</t>
+  </si>
+  <si>
+    <t>Quimica</t>
+  </si>
+  <si>
+    <t>Fisica</t>
+  </si>
+  <si>
+    <t>1P</t>
+  </si>
+  <si>
+    <t>2P</t>
+  </si>
+  <si>
+    <t>3P</t>
+  </si>
+  <si>
+    <t>GUACAMAYO</t>
+  </si>
+  <si>
+    <t>PUMA</t>
+  </si>
+  <si>
+    <t>JUCUMARI</t>
   </si>
 </sst>
 </file>
@@ -502,10 +541,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46D89A52-C838-41E3-B87F-7B4C2F194DC1}">
-  <dimension ref="A3:M23"/>
+  <dimension ref="A3:N23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -513,7 +552,7 @@
     <col min="1" max="15" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:13" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -550,11 +589,14 @@
       <c r="L3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="M3" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N3" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -565,11 +607,14 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
+      <c r="K4" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -580,11 +625,14 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
+      <c r="K5" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N5" s="1"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -595,11 +643,14 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
+      <c r="K6" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N6" s="1"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -610,11 +661,14 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
+      <c r="K7" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -625,9 +679,54 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
+      <c r="K8" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="K10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L10" t="s">
+        <v>22</v>
+      </c>
+      <c r="M10" t="s">
+        <v>28</v>
+      </c>
+      <c r="N10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="K11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L11" t="s">
+        <v>23</v>
+      </c>
+      <c r="M11" t="s">
+        <v>29</v>
+      </c>
+      <c r="N11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="K12" t="s">
+        <v>21</v>
+      </c>
+      <c r="L12" t="s">
+        <v>24</v>
+      </c>
+      <c r="M12" t="s">
+        <v>30</v>
+      </c>
+      <c r="N12" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="18" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
@@ -682,6 +781,20 @@
       <c r="E23" s="1"/>
     </row>
   </sheetData>
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K4:K8" xr:uid="{FEC84CF3-92E6-47F9-99C8-6A6909F22D9C}">
+      <formula1>$K$10:$K$12</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L4:L8" xr:uid="{558B6D81-7013-49AF-8E3F-03DC5387607D}">
+      <formula1>$L$10:$L$12</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M4:M8" xr:uid="{540B2AF2-0EAA-4B11-A792-63EAC7FF93F6}">
+      <formula1>$M$10:$M$12</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N4:N8" xr:uid="{6351C29B-B95E-4191-8A64-C06C14D74D00}">
+      <formula1>$N$10:$N$12</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>